--- a/Obiecte/Egypt/Egypt.xlsx
+++ b/Obiecte/Egypt/Egypt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\Obiecte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Site\Obiecte\Egypt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3373BBA-5433-4318-9510-3E0E15DC97E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA4E69-515C-40A0-AC05-E35DFF738FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98D418CB-3300-434C-BF90-04570C58BCE7}"/>
+    <workbookView xWindow="3930" yWindow="2985" windowWidth="21600" windowHeight="11505" xr2:uid="{98D418CB-3300-434C-BF90-04570C58BCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D34697-FAEE-46D3-8751-ED1F6B7FAD04}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
